--- a/kargar/FAN- RCM KARGAR.xlsx
+++ b/kargar/FAN- RCM KARGAR.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\H.haddadniya\RCM\مهندس کارگر\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heidar\Documents\GitHub\RCM_data_concatinating\kargar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912A0D48-B7F2-4416-B554-F93438608F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8130" yWindow="975" windowWidth="16320" windowHeight="11205" firstSheet="24" activeTab="34"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="28" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0110FN01" sheetId="4" r:id="rId1"/>
@@ -59,14 +60,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -6263,19 +6256,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -6283,7 +6276,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -6291,7 +6284,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -6300,7 +6293,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6308,7 +6301,7 @@
       <b/>
       <sz val="20"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6316,13 +6309,13 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6336,7 +6329,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6357,7 +6350,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6507,7 +6500,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6784,27 +6777,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -7901,27 +7894,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -10193,27 +10186,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -11899,27 +11890,27 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -13601,27 +13592,27 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -15111,34 +15102,34 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K74"/>
+  <autoFilter ref="A1:K74" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -16633,27 +16624,27 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -17743,34 +17734,34 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K54"/>
+  <autoFilter ref="A1:K54" xr:uid="{00000000-0009-0000-0000-00000E000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -18866,27 +18857,27 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -19982,27 +19973,27 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -20958,27 +20949,27 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -21934,27 +21925,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -22813,27 +22804,27 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -23568,27 +23559,27 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -24543,27 +24534,27 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -25418,27 +25409,27 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -26533,27 +26524,27 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -28189,27 +28180,27 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -29825,27 +29816,27 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -30801,27 +30792,27 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -31777,27 +31768,27 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -32752,27 +32743,27 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -33847,27 +33838,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -34826,27 +34817,27 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -35941,27 +35932,27 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -37057,27 +37048,27 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -38152,27 +38143,27 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -39127,27 +39118,27 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -39962,27 +39953,27 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -40797,27 +40788,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -41656,27 +41647,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -42515,27 +42506,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -43628,34 +43619,34 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K54"/>
+  <autoFilter ref="A1:K54" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -44734,27 +44725,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -45833,30 +45824,30 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="89.25" customHeight="1">
@@ -48125,7 +48116,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K111"/>
+  <autoFilter ref="A1:K111" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
